--- a/网站监测反馈v3.0.xlsx
+++ b/网站监测反馈v3.0.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>检测时间：2025-04-01 16:06:56</t>
+          <t>检测时间：2025-04-14 10:08:39</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>平昌县发展和改革局</t>
+          <t>平昌县经济和信息化局</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -507,16 +507,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县2024年1-12月储备重大项目估算总投资477.6亿元                                            </t>
+          <t xml:space="preserve">1-9月平昌县规上工业企业实现总产值30.78亿元                                            </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>平昌县经济和信息化局</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,16 +542,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-9月平昌县规上工业企业实现总产值30.78亿元                                            </t>
+          <t xml:space="preserve">11-12月办理法律援助案件情况                                            </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -565,26 +565,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平昌县司法局</t>
+          <t>平昌县人力资源和社会保障局</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>司法监督</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024年度平昌县司法局实施行政许可、行政处罚、行政强制和行政检查情况的公示                                            </t>
+          <t xml:space="preserve">平昌县人力资源和社会保障局关于撤销邓青等377人专业技术职务任职资格的公告                                            </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -598,26 +598,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>重大项目</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024年参保情况统计                                            </t>
+          <t xml:space="preserve">平昌县桥沟河水库工程1#施工便道等3宗临时用地的批复情况公示                                            </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -631,26 +631,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>平昌县住房和城乡建设局</t>
+          <t>平昌县自然资源和规划局</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">县住建局：项目资金争取情况                                            </t>
+          <t xml:space="preserve">平昌县自然资源和规划局关于变更（缩小）平昌县江口镇白沙村顶梁山页岩矿矿区范围的公告                                            </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -664,26 +664,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>平昌县住房和城乡建设局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>统计信息</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">关于建筑业企业行政许可审批决定的通告                                            </t>
+          <t xml:space="preserve">镇广高速平昌段完成情况                                            </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -697,26 +697,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>平昌县卫生健康局</t>
+          <t>平昌县交通运输局</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>卫生健康</t>
+          <t>重大项目</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">这些春节聚餐的“常驻嘉宾”，一不小心就会“中招”！4招避免它                                            </t>
+          <t xml:space="preserve">镇广高速平昌段推进情况                                            </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -730,26 +730,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>平昌县应急管理局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>规划计划</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024年度行政许可、行政处罚、行政强制、行政检查实施情况统计表                                            </t>
+          <t xml:space="preserve">平昌县商务局2024年工作要点                                            </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-01-06</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>357</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -763,26 +763,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>平昌县审计局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>统计信息</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2024年审计项目实施情况统计表                                            </t>
+          <t xml:space="preserve">平昌县商务局行政权力事项调整目录公示                                            </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -796,26 +796,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县审计局</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>规划计划</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">巴中市平昌生态环境局2024年工作计划                                            </t>
+          <t xml:space="preserve">关于印发《平昌县县本级党政主要领导干部和国有企事业单位主要领导人员经济责任审计工作规划（2024-2028年）》的通知                                            </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2025-01-23</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>405</v>
+        <v>81</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>巴中市平昌生态环境局</t>
+          <t>平昌县市场监督管理局</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -839,16 +839,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">排污许可管理办法                                            </t>
+          <t xml:space="preserve">平昌县市场监督管理局关于6批次不合格食品核查处置情况的通告（2024年第13号）                                            </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-10-09</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>平昌县信访局</t>
+          <t>巴中市平昌生态环境局</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -872,16 +872,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">信访事项网上办理工作规程                                            </t>
+          <t xml:space="preserve">排污许可管理办法                                            </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-12-30</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -994,26 +994,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县白衣镇人民政府</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>政府工作报告</t>
+          <t>其他法定信息</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">粉壁镇2024年政府工作报告                                            </t>
+          <t xml:space="preserve">平昌县白衣镇人民政府平昌县公安局白衣派出所平昌县公安局交通管理大队三房湾中队关于开展白衣集镇道路交通秩序专项整治行动的通告                                            </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>359</v>
+        <v>83</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1027,26 +1027,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
+          <t>平昌县龙岗镇人民政府</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>其他法定信息</t>
+          <t>政府工作报告</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">平昌县灵山镇2025年以工代赈项目租购聘询价比价公告                                            </t>
+          <t xml:space="preserve">龙岗镇2024年政府工作报告                                            </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>83</v>
+        <v>356</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1058,6 +1058,29 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青云镇2024年政府工作报告                                            </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>357</v>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>社会保障</t>
@@ -1068,15 +1091,29 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>2.死链监测：以下单位对应栏目无内容，请上传内容或审核发布</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">森林防灭火注意事项                                            </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>90</v>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>招考录用</t>
@@ -1087,19 +1124,29 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>栏目名称</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青云镇2024年12月项目入库情况                                            </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>90</v>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
           <t>司法监督</t>
@@ -1110,6 +1157,29 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>平昌县元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元山镇2024年经济作物产量表                                            </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>81</v>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>价格信息</t>
@@ -1120,15 +1190,29 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>3.统计信息缺失年份：以下单位缺失对应年份统计信息，请补充</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>平昌县元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>民生保障</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">元山镇困难群众温暖过冬专项救助行动方案                                            </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>81</v>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>住房保障</t>
@@ -1139,19 +1223,29 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>缺失年份</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">灵山镇2024年政府工作报告                                            </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>360</v>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>涉农补贴</t>
@@ -1164,13 +1258,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>平昌县经济和信息化局</t>
+          <t>平昌县土兴镇人民政府</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">土兴镇2024年11-12月安全工作开展情况统计                                            </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-01-24</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>80</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1182,6 +1289,29 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>平昌县云台镇人民政府</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">云台镇2024年11-12月安全工作开展情况统计                                            </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>81</v>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>应急管理</t>
@@ -1192,10 +1322,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>二、政府信息公开年报栏目缺失情况监测</t>
-        </is>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">邱家镇2024年政府工作报告                                            </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>356</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1207,19 +1355,29 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>缺失年份</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>政府工作报告</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">笔山镇2024政府工作报告                                            </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>356</v>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>市场监管</t>
@@ -1230,6 +1388,29 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">关于2025年春节期间笔山场镇路段实施临时交通管制的通告                                            </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>81</v>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
           <t>环评公示</t>
@@ -1240,10 +1421,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>三、机构职能页监测</t>
-        </is>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>统计信息</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">镇龙镇2024年新建森林防灭火通道统计                                            </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>84</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1257,8 +1456,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1.以下位置未发布，请管理员处理</t>
-        </is>
+          <t>平昌县江家口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>其他法定信息</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">平昌县江家口镇生态护林员2024年7-9月份管护劳务报酬资金兑现表                                            </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>82</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1280,11 +1497,15 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2.以下位置链接状态错误，请管理员检查</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>2.死链监测：以下单位对应栏目无内容，请上传内容或审核发布</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n"/>
+      <c r="C35" s="2" t="n"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>乡村振兴</t>
@@ -1295,6 +1516,19 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>栏目名称</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
       <c r="J36" t="inlineStr">
         <is>
           <t>行政许可/处罚</t>
@@ -1305,11 +1539,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>3.以下单位机关简介中无领导分管政务公开，请对应部门修改</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
           <t>医疗保障</t>
@@ -1320,6 +1549,15 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>3.统计信息缺失年份：以下单位缺失对应年份统计信息，请补充</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="2" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
       <c r="J38" t="inlineStr">
         <is>
           <t>公共文化服务</t>
@@ -1330,11 +1568,19 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>4.以下单位机关简介中时间表述错误，请对应部门修改</t>
-        </is>
-      </c>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>单位名称</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>缺失年份</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
       <c r="J39" t="inlineStr">
         <is>
           <t>卫生健康</t>
@@ -1345,6 +1591,16 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>平昌县经济和信息化局</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>价格监测</t>
@@ -1355,11 +1611,6 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>四、政府信息政策栏超期情况</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>民生保障</t>
@@ -1370,127 +1621,49 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>二、政府信息公开年报栏目缺失情况监测</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>单位名称</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>更新标题</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>最后更新时间</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>超期天数</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>平昌县商务局</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">平昌县商务局关于印发《平昌县商务领域安全生产治本攻坚三年行动方案（2024—2026年）》的通知                                            </t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2024-04-10</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>平昌县市场监督管理局</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">关于明确行政处罚信息公示中适用“较低数额罚款”标准的规定                                            </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2024-04-01</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>365</v>
-      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>缺失年份</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>平昌县元山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">元山镇人民政府关于印发《元山镇突发地质灾害应急预案》的通知                                            </t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2024-04-07</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>五、基层政务公开专栏监测</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>三、机构职能页监测</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1.以下位置未发布，请管理员处理</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>1.以下位置内容条数少于4条</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n"/>
-      <c r="C48" s="2" t="n"/>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2.以下位置链接状态错误，请管理员检查</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>二级事项</t>
-        </is>
-      </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
           <t>基层政务公开栏目检测标准:</t>
@@ -1498,6 +1671,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3.以下单位机关简介中无领导分管政务公开，请对应部门修改</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>1.每个事项的总内容不少于4条</t>
@@ -1505,15 +1683,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>2.以下位置最近更新时间大于330天</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n"/>
-      <c r="C51" s="2" t="n"/>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
       <c r="J51" t="inlineStr">
         <is>
           <t>2.最新更新时间不大于90天</t>
@@ -1523,219 +1692,78 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>4.以下单位机关简介中时间表述错误，请对应部门修改</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>3.每相邻两条信息之间更新时间不大于90天</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>注意：除办事服务等不易发布的内容外，其余链接形式的内容应尽量粘贴复制而不是直接跳转，否则机器人无法监测</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>四、政府信息政策栏超期情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
           <t>单位名称</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>二级事项</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>3.每相邻两条信息之间更新时间不大于90天</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>就业领域</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>行政检查</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>劳动保障监督检查</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>注意：除办事服务等不易发布的内容外，其余链接形式的内容应尽量粘贴复制而不是直接跳转，否则机器人无法监测</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>就业领域</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>职业介绍、职业指导和创业开业指导</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>职业介绍</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>就业领域</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>公共就业服务专项活动</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>高校毕业生就业服务一件事</t>
-        </is>
-      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>更新标题</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>最后更新时间</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>超期天数</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>平昌县人力资源和社会保障局</t>
+          <t>平昌县商务局</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>就业领域</t>
+          <t xml:space="preserve">平昌县商务局关于印发《平昌县商务领域安全生产治本攻坚三年行动方案（2024—2026年）》的通知                                            </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>就业失业登记</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>失业登记</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>就业领域</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>创业服务</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>创业补贴申请</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>平昌县人力资源和社会保障局</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>就业领域</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>高校毕业生就业服务</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">就业见习补贴申领   </t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>平昌县财政局</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>财政预决算</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>财政预算</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>3.以下位置相邻文章发布时间间隔大于90天</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="n"/>
-      <c r="C61" s="2" t="n"/>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>单位名称</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>领域</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>一级事项</t>
-        </is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
